--- a/Oil_ETF/CRUDP.xlsx
+++ b/Oil_ETF/CRUDP.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Google Drive\_GitHub\Articles_and_studies\Oil_ETF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4691F-48A7-458B-B9E9-C45BB8FD4AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-4005" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -12,10 +18,16 @@
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" hidden="1">Folha1!$B$2:$C$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -94,31 +106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[Livro2]Folha1!R6C3</stp>
-        <stp>PX_LAST</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9895964617943881798</stp>
-        <tr r="B8" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,17 +370,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C1121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:C1141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A1097" workbookViewId="0">
+      <selection activeCell="O1123" sqref="O1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -415,9 +403,9 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="str">
-        <f>_xll.BFieldInfo(C$7)</f>
-        <v>Last Price</v>
+      <c r="C6" t="e">
+        <f ca="1">_xll.BFieldInfo(C$7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -429,9 +417,9 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <f>_xll.BDH(C$5,C$7,$C2,$C3,"Dir=V","Dts=S","cols=2;rows=1114")</f>
-        <v>42311</v>
+      <c r="B8" s="2" t="e">
+        <f ca="1">_xll.BDH(C$5,C$7,$C2,$C3,"Dir=V","Dts=S","cols=2;rows=1114")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C8">
         <v>9.7149999999999999</v>
@@ -9338,10 +9326,171 @@
         <v>43901</v>
       </c>
       <c r="C1121">
-        <v>4.45</v>
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1122" s="2">
+        <v>43902</v>
+      </c>
+      <c r="C1122">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1123" s="2">
+        <v>43903</v>
+      </c>
+      <c r="C1123">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1124" s="2">
+        <v>43906</v>
+      </c>
+      <c r="C1124">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1125" s="2">
+        <v>43907</v>
+      </c>
+      <c r="C1125">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1126" s="2">
+        <v>43908</v>
+      </c>
+      <c r="C1126">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1127" s="2">
+        <v>43909</v>
+      </c>
+      <c r="C1127">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1128" s="2">
+        <v>43910</v>
+      </c>
+      <c r="C1128">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1129" s="2">
+        <v>43913</v>
+      </c>
+      <c r="C1129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1130" s="2">
+        <v>43914</v>
+      </c>
+      <c r="C1130">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1131" s="2">
+        <v>43915</v>
+      </c>
+      <c r="C1131">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1132" s="2">
+        <v>43916</v>
+      </c>
+      <c r="C1132">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1133" s="2">
+        <v>43917</v>
+      </c>
+      <c r="C1133">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1134" s="2">
+        <v>43920</v>
+      </c>
+      <c r="C1134">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1135" s="2">
+        <v>43921</v>
+      </c>
+      <c r="C1135">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1136" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C1136">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1137" s="2">
+        <v>43923</v>
+      </c>
+      <c r="C1137">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1138" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C1138">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1139" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C1139">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1140" s="2">
+        <v>43928</v>
+      </c>
+      <c r="C1140">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1141" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C1141">
+        <v>3.29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Oil_ETF/CRUDP.xlsx
+++ b/Oil_ETF/CRUDP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Google Drive\_GitHub\Articles_and_studies\Oil_ETF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4691F-48A7-458B-B9E9-C45BB8FD4AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCCA4E6-7C97-44B6-A05B-5F604C403918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4005" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24795" yWindow="-8085" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" hidden="1">Folha1!$B$2:$C$8</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Start Date</t>
   </si>
@@ -50,6 +51,21 @@
   <si>
     <t>PX_LAST</t>
   </si>
+  <si>
+    <t>Crude Oil USD</t>
+  </si>
+  <si>
+    <t>Eur USD</t>
+  </si>
+  <si>
+    <t>Crude Oil EUR</t>
+  </si>
+  <si>
+    <t>Variação</t>
+  </si>
+  <si>
+    <t>CRUDP</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +82,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,17 +120,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,17 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C1141"/>
+  <dimension ref="B2:J1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1097" workbookViewId="0">
-      <selection activeCell="O1123" sqref="O1123"/>
+    <sheetView tabSelected="1" topLeftCell="A1133" workbookViewId="0">
+      <selection activeCell="E1143" sqref="E1143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -9321,7 +9382,7 @@
         <v>4.3959999999999999</v>
       </c>
     </row>
-    <row r="1121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1121" s="2">
         <v>43901</v>
       </c>
@@ -9329,7 +9390,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="1122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1122" s="2">
         <v>43902</v>
       </c>
@@ -9337,7 +9398,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="1123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1123" s="2">
         <v>43903</v>
       </c>
@@ -9345,7 +9406,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="1124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1124" s="2">
         <v>43906</v>
       </c>
@@ -9353,7 +9414,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="1125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1125" s="2">
         <v>43907</v>
       </c>
@@ -9361,7 +9422,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="1126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1126" s="2">
         <v>43908</v>
       </c>
@@ -9369,7 +9430,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="1127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1127" s="2">
         <v>43909</v>
       </c>
@@ -9377,7 +9438,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="1128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1128" s="2">
         <v>43910</v>
       </c>
@@ -9385,7 +9446,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="1129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1129" s="2">
         <v>43913</v>
       </c>
@@ -9393,7 +9454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1130" s="2">
         <v>43914</v>
       </c>
@@ -9401,7 +9462,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="1131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1131" s="2">
         <v>43915</v>
       </c>
@@ -9409,15 +9470,16 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="1132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1132" s="2">
         <v>43916</v>
       </c>
       <c r="C1132">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="1133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I1132" s="4"/>
+    </row>
+    <row r="1133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1133" s="2">
         <v>43917</v>
       </c>
@@ -9425,7 +9487,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="1134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1134" s="2">
         <v>43920</v>
       </c>
@@ -9433,7 +9495,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="1135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1135" s="2">
         <v>43921</v>
       </c>
@@ -9441,7 +9503,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="1136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1136" s="2">
         <v>43922</v>
       </c>
@@ -9449,7 +9511,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="1137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1137" s="2">
         <v>43923</v>
       </c>
@@ -9457,7 +9519,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="1138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1138" s="2">
         <v>43924</v>
       </c>
@@ -9465,7 +9527,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="1139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1139" s="2">
         <v>43927</v>
       </c>
@@ -9473,7 +9535,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="1140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1140" s="2">
         <v>43928</v>
       </c>
@@ -9481,16 +9543,217 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="1141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1141" s="2">
         <v>43929</v>
       </c>
       <c r="C1141">
         <v>3.29</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1142" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C1142">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1143" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C1143">
+        <v>3.08</v>
+      </c>
+      <c r="E1143" s="6"/>
+    </row>
+    <row r="1144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1144" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C1144">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1145" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1145">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1146" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1146">
+        <v>2.86</v>
+      </c>
+      <c r="D1146" s="3"/>
+      <c r="F1146" s="3"/>
+      <c r="H1146" s="3"/>
+      <c r="I1146" s="4"/>
+      <c r="J1146" s="3"/>
+    </row>
+    <row r="1147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1147" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1147">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1148" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1148">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1149" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1149">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1150" s="2">
+        <v>43944</v>
+      </c>
+      <c r="C1150">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1151" s="2">
+        <v>43945</v>
+      </c>
+      <c r="C1151">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1152" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1152">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1153" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1153">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B79570-68A7-43A3-9309-EDC5C0011E38}">
+  <dimension ref="B4:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C5">
+        <v>3.4</v>
+      </c>
+      <c r="E5">
+        <v>22.76</v>
+      </c>
+      <c r="G5">
+        <v>1.0929</v>
+      </c>
+      <c r="I5" s="4">
+        <f>E5/G5</f>
+        <v>20.825327111355111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C6">
+        <v>2.86</v>
+      </c>
+      <c r="D6" s="5">
+        <f>(C6/C5)-1</f>
+        <v>-0.1588235294117647</v>
+      </c>
+      <c r="E6">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(E6/E5)-1</f>
+        <v>-0.20254833040421805</v>
+      </c>
+      <c r="G6">
+        <v>1.0875999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <f>(G6/G5)-1</f>
+        <v>-4.8494830268094313E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <f>E6/G6</f>
+        <v>16.688120632585509</v>
+      </c>
+      <c r="J6" s="5">
+        <f>(I6/I5)-1</f>
+        <v>-0.19866225661894987</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>